--- a/CarWash_Hackathon/ExcelReport/JustDialService.xlsx
+++ b/CarWash_Hackathon/ExcelReport/JustDialService.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +41,15 @@
     <t>07947234760</t>
   </si>
   <si>
+    <t>Sk Maruti</t>
+  </si>
+  <si>
+    <t>Near HDFC BANK, No.. |</t>
+  </si>
+  <si>
+    <t>07947234575</t>
+  </si>
+  <si>
     <t>Gmg Bosch Car Service</t>
   </si>
   <si>
@@ -50,31 +59,13 @@
     <t>07947219486</t>
   </si>
   <si>
-    <t>Sk Maruti</t>
-  </si>
-  <si>
-    <t>Near HDFC BANK, No.. |</t>
-  </si>
-  <si>
-    <t>07947234575</t>
-  </si>
-  <si>
-    <t>Total Car Solution</t>
-  </si>
-  <si>
-    <t>Niti Khand 2, Indi.. |</t>
-  </si>
-  <si>
-    <t>+(91)-9999454492</t>
-  </si>
-  <si>
-    <t>Fidato Car Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Sector 63, Noida S.. |</t>
-  </si>
-  <si>
-    <t>+(91)-8447038042</t>
+    <t>Faster Auto Care</t>
+  </si>
+  <si>
+    <t>Street No 1, Karka.. |</t>
+  </si>
+  <si>
+    <t>07947461659</t>
   </si>
 </sst>
 </file>
@@ -192,15 +183,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8">
       <c r="A8"/>
